--- a/Új Microsoft Excel-munkalap.xlsx
+++ b/Új Microsoft Excel-munkalap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34FF1EC-E07D-4EFB-BE96-865E9972EAAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE69F0-1941-4838-AB14-FE89103015DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Cím</t>
   </si>
@@ -67,25 +67,127 @@
     <t>The Lord of The Rings</t>
   </si>
   <si>
-    <t>New Line Cinema Warner</t>
-  </si>
-  <si>
     <t>Peter Jackson</t>
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian Holm, Ian Mune, Hugo Weaving, Viggo Mortensen</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Nem</t>
+  </si>
+  <si>
+    <t>A Keresztapa</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Marlon Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hetedik </t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+  </si>
+  <si>
+    <t>Darius Khondji</t>
+  </si>
+  <si>
+    <t>David Fitcher</t>
+  </si>
+  <si>
+    <t>New Line Cinema, Warner</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma, Rejtély</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Jason Statam, Brad Pitt, Stephen Graham</t>
+  </si>
+  <si>
+    <t>Vígjáték, Krimi</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Tim Marurice-Jones</t>
+  </si>
+  <si>
+    <t>Columbia, Sony Pictures</t>
+  </si>
+  <si>
+    <t>Jhon Murphy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,13 +208,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +528,9 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
@@ -414,68 +539,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>2011</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>178</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1972</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2">
+        <v>175</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2">
+        <v>127</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>104</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.imdb.com/name/nm0000704/?ref_=ttfc_fc_cl_t33" xr:uid="{01E157DE-6DBE-4D0F-ACAA-0AA60CF78BB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>